--- a/RBAI_RBAI_results.xlsx
+++ b/RBAI_RBAI_results.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\MSc Thesis\MSc Code\github\MSc_Thesis_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A0CF2B-A640-4868-91E6-ABADFD1CEC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E701E-811C-4D48-B50E-9F1472C136ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$T$205</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="634">
   <si>
     <t>DateTime</t>
   </si>
@@ -616,6 +619,84 @@
     <t>20250418_191218</t>
   </si>
   <si>
+    <t>20250423_105814</t>
+  </si>
+  <si>
+    <t>20250423_110037</t>
+  </si>
+  <si>
+    <t>20250423_110207</t>
+  </si>
+  <si>
+    <t>20250423_110732</t>
+  </si>
+  <si>
+    <t>20250423_110907</t>
+  </si>
+  <si>
+    <t>20250423_111230</t>
+  </si>
+  <si>
+    <t>20250423_111410</t>
+  </si>
+  <si>
+    <t>20250423_111639</t>
+  </si>
+  <si>
+    <t>20250423_111850</t>
+  </si>
+  <si>
+    <t>20250423_112100</t>
+  </si>
+  <si>
+    <t>20250423_112416</t>
+  </si>
+  <si>
+    <t>20250423_112645</t>
+  </si>
+  <si>
+    <t>20250423_112828</t>
+  </si>
+  <si>
+    <t>20250423_113006</t>
+  </si>
+  <si>
+    <t>20250423_113239</t>
+  </si>
+  <si>
+    <t>20250423_113518</t>
+  </si>
+  <si>
+    <t>20250423_113728</t>
+  </si>
+  <si>
+    <t>20250423_113855</t>
+  </si>
+  <si>
+    <t>20250423_114217</t>
+  </si>
+  <si>
+    <t>20250423_114349</t>
+  </si>
+  <si>
+    <t>20250423_114617</t>
+  </si>
+  <si>
+    <t>20250423_114837</t>
+  </si>
+  <si>
+    <t>20250423_115009</t>
+  </si>
+  <si>
+    <t>20250423_115238</t>
+  </si>
+  <si>
+    <t>20250423_115410</t>
+  </si>
+  <si>
+    <t>20250423_115629</t>
+  </si>
+  <si>
     <t>buyer</t>
   </si>
   <si>
@@ -1156,6 +1237,84 @@
     <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm glad we're starting our negotiation! My Base Retail Price to Consumer (RP) is indeed 10. Now, I'd like to know what your constraints are. Could you please share them with me?"}, {'role': 'assistant', 'content': 'My Base Production Cost (PC) is 2. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "I'm pleased to review our initial proposal. Based on the payoff tables, I've considered my options and am willing to start negotiations with a balanced offer.\n\nMy initial response is: Price of 6 and quality of 1.\n\nThis combination strikes a balance between wholesale price and quality assurance, providing a reasonable starting point for further discussion.\n\nPlease respond with your thoughts, and we can proceed."}, {'role': 'assistant', 'content': "I understand you need a balanced offer. Given your proposal of 6 wholesale price and quality 1, I'd like to reflect on our conversation so far. Your offer doesn't align with my desired outcomes, considering my Base Production Cost is 2.\n\nInstead, I propose an alternative: 7 wholesale price and quality 0. This combination addresses balance while taking into account my constraints and desired payoffs. Let's discuss this further and see if we can find a mutually beneficial agreement."}, {'role': 'assistant', 'content': "I understand your proposal doesn't align with my needs, considering my Base Retail Price to Consumer is 10. I'd like to counteroffer: 6 wholesale price and quality 1, which maintains balance while taking into account our conversation so far. Let's discuss further and see if we can find a mutually beneficial agreement."}, {'role': 'assistant', 'content': "I understand you're looking for balance, but my Base Production Cost is 2, so your offer doesn't align with mine. I proposed 7 wholesale price and quality 0 as an alternative."}, {'role': 'assistant', 'content': "I understand your proposal didn't align with mine initially. Considering our conversation, I'd like to reflect on our negotiation so far. My initial offer didn't meet your desired outcomes, but now I'm open to alternative options. How about we aim for a 6 wholesale price and quality level of 2? This combination seems to balance the wholesale price and quality assurance while considering our conversation history."}, {'role': 'assistant', 'content': "I understand you're looking at alternative options. Considering our previous proposals, I'd like to counteroffer: 6 wholesale price and quality of 0. This combination aligns with my constraints and desired payoffs, while maintaining balance in the negotiation. Let's discuss further to find a mutually beneficial agreement."}, {'role': 'assistant', 'content': "Thank you for your understanding! I'm pleased to accept your latest proposal: 6 wholesale price and quality level of 0. This combination seems to strike a good balance between our needs, considering my Base Retail Price to Consumer is 10 and your Base Production Cost is 2. Let's finalize the agreement with this mutually beneficial outcome."}]</t>
   </si>
   <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "I'm excited to start our negotiation too! My Base Production Cost (PC) is indeed 1. Can you please share your constraints?\n\nAlso, I'd like to know more about your constraints before we dive into the negotiation. Please do share them with me."}, {'role': 'assistant', 'content': "I'd be happy to share my constraints.\n\nMy Base Retail Price to Consumer (RP) is 8. Shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "I've considered my goals and constraints, aiming to negotiate a low wholesale price with high-quality wood pellets. My initial offer is 7 price and quality of 2, serving as a reasonable starting point for our negotiation. I'm open to your thoughts on this proposal."}, {'role': 'assistant', 'content': "I appreciate your reasonable starting point! I'm pleased to accept your initial offer of 7 wholesale price and Quality of 2. Thank you for considering my future negotiations. Your proposed terms align with my goals, and I look forward to further discussions."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "Hi! I'm thrilled to start our negotiation as well. As per your request, my Base Production Cost (PC) is indeed 3.\n\nNow, I'd like to inquire about your constraints, if you don't mind sharing them with me? Please let me know what's driving your goals and objectives for this negotiation."}, {'role': 'assistant', 'content': "Thank you for sharing your Base Production Cost. I'll make sure to keep that in mind as we negotiate.\n\nAs per your request, my constraint is indeed the Base Retail Price to Consumer (RP), which is 10. Shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "I've thought about our conversation and I'm willing to make an initial offer. My proposal is for a wholesale price of 11 with a quality level of 0. This should be a competitive offer that you'll consider. Let's see if we can build upon this foundation to reach a mutually beneficial agreement."}, {'role': 'assistant', 'content': "I understand your initial offer and appreciate the effort. However, I'm afraid it's not profitable for me at a wholesale price of 11 with quality level 0. Can we explore other options? How about a wholesale price of 9 with a quality level of 3?"}, {'role': 'assistant', 'content': "I'm glad you're open to exploring alternative options! Your proposed offer of a wholesale price of 9 and a quality level of 3 sounds intriguing, and I'd like to accept it. Thank you for being willing to compromise! The agreed-upon terms are: a wholesale price of 9 and a quality level of 3."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation as well.\n\nMy Base Retail Price to Consumer (RP) is indeed 10. Thank you for asking!\n\nNow, I'd like to know more about your constraints. Could you please share with me what's driving your needs in this negotiation?"}, {'role': 'assistant', 'content': 'My Base Production Cost (PC) is 3. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "I've reviewed the payoff tables and decided to make an opening bid that balances quality with a reasonable wholesale price. My initial offer is 7 for a quality of 1. This proposal meets you halfway between your highest offered quality and my desired level, while setting a tone for further negotiations on both issues. I believe this offer provides a good starting point for our discussion. What are your thoughts?"}, {'role': 'assistant', 'content': "Thank you for the thoughtful opening bid! I'm pleased to accept your initial offer of 7 for a quality of 1. It's a reasonable start, and I appreciate your willingness to balance quality with price."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm looking forward to our negotiation as well! My Base Retail Price to Consumer (RP) is indeed 8. However, I'd like to know more about your constraints before we proceed.\n\nCould you please share with me your Base Retail Price to Consumer? Additionally, what are the minimum and maximum wholesale prices you're willing to consider for this 10kg bag of wood pellets?"}, {'role': 'assistant', 'content': 'My Base Production Cost (PC) is 1. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "I'll start by proposing an initial compromise that balances our interests. I'm offering a wholesale price of 5 and a quality level of 2. This seems like a reasonable starting point, considering it's a mid-range price and moderate quality. My reasoning is to find a balance between my desired outcomes and the supplier's potential constraints."}, {'role': 'assistant', 'content': "I appreciate your willingness to find a balance. Unfortunately, your initial proposal doesn't quite meet my constraints. I'd need a higher wholesale price to make this deal profitable. A possible compromise could be a wholesale price of 7 with a quality level of 1."}, {'role': 'assistant', 'content': "I understand that our initial proposal didn't quite align with your needs. You're open to revisiting the negotiation, and we could explore an alternative compromise that meets both of our interests."}, {'role': 'assistant', 'content': "I'm glad we're revisiting the negotiation! I'd like to explore an alternative compromise with a wholesale price of 7 and a quality level of 1. This proposal seems reasonable, given my desire for a higher profit margin while still meeting your needs. What do you think?"}, {'role': 'assistant', 'content': "I've been considering our revised proposal and I'm willing to counter-offer with a wholesale price of 6 and a quality level of 2. This compromise aims to find a mutually beneficial agreement that meets both parties' needs."}, {'role': 'assistant', 'content': "Thank you for your understanding! I'm pleased to accept your counter-offer, which includes a wholesale price of 6 and a quality level of 2. These terms align with my constraints and allow us to reach a mutually beneficial agreement."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm excited to start our negotiation as well! My Base Retail Price to Consumer (RP) is indeed 9. Can you please share your constraints?\n\nPlease go ahead and let me know what's important to you regarding Wholesale price and Quality. I'd like to understand your perspective before we dive into the negotiation."}, {'role': 'assistant', 'content': "Thank you for sharing your Base Retail Price to Consumer! That's a great starting point.\n\nAs for my constraints, My Base Production Cost (PC) is indeed 2. Shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "I'll make an initial offer by selecting the option that offers me the highest payoff. I choose: Wholesale price of 7 and quality of 2. This seems like a reasonable starting point, as it provides a decent wholesale price while allowing for some quality in the wood pellets."}, {'role': 'assistant', 'content': "I'm pleased to accept your initial offer! The terms you've proposed are indeed favorable - a Wholesale price of 7 and Quality of 2. Thank you for making a reasonable starting point."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "Thank you for starting the negotiation! I'm excited too.\n\nMy Base Production Cost (PC) is indeed 2.\n\nNow, could you please share with me your constraints? What are your requirements or limitations that will influence our negotiation?"}, {'role': 'assistant', 'content': 'Thank you for sharing your Base Production Cost.\n\nMy Base Retail Price to Consumer (RP) is 8. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "I'll start by making an initial offer. As a supplier, my goal is to get the highest possible wholesale price with the lowest possible quality. I've chosen a Pareto-efficient offer: 11 wholesale price and quality of 0. This seems reasonable considering that high-quality products increase production costs, while low-quality products still allow me to maintain some profit. The 11 wholesale price also looks attractive given the potential benefits. Are you interested in accepting or rejecting this offer?"}, {'role': 'assistant', 'content': "I'm not interested in accepting your initial offer as it's not profitable for me. I'd like to explore other options. Considering my Base Retail Price to Consumer is 8, which cannot be lowered, I think a wholesale price of 5 with a quality level of 1 could lead to a mutually beneficial agreement."}, {'role': 'assistant', 'content': "I'm open to re-examining our negotiation. Given that you have a Base Retail Price to Consumer of 8, which can't be lowered, I think we could aim for a wholesale price of 5 with a quality level of 1. This combination seems reasonable and aligns with my goals as a supplier."}, {'role': 'assistant', 'content': "I'm pleased to accept your revised proposal! Thank you for being open to re-examining our negotiation. As agreed, the terms of our mutually beneficial deal are: a wholesale price of 5 and a quality level of 1. I appreciate your understanding."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm glad we're starting our negotiation! My Base Retail Price to Consumer (RP) is indeed 10. Can you please share your constraints?\n\nAlso, I'd like to clarify that my main goal is to strike a deal with a high quality and a low wholesale price, as these factors will directly impact my retail price to consumer."}, {'role': 'assistant', 'content': 'Thank you for sharing your retail price to consumer! My Base Production Cost (PC) is indeed 1. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "I'm excited to start our negotiation! As the Buyer, my initial offer is a combination that balances both Wholesale price and Quality. I'll choose an option that sets a reasonable tone for our negotiation.\n\nAfter reviewing the options, I'll make an initial offer of Price 7 and quality 2. This compromise should be acceptable to the Supplier, as it offers a moderate Wholesale price while maintaining a relatively high Quality.\n\nPlease respond with your thoughts on this initial offer."}, {'role': 'assistant', 'content': "Thank you for extending an olive branch! I appreciate your reasonable proposal. After careful consideration, I'm pleased to accept your initial offer of 7 wholesale price and quality 2. Your compromise seems fair, considering the base production cost of 1. Let's build upon this foundation to reach a mutually beneficial agreement."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "Hello! I'm excited to start our negotiation as well.\n\nMy Base Production Cost (PC) is indeed 2. As we begin, I'd like to know more about your constraints and what's driving your priorities in this negotiation.\n\nCan you please share with me your base production cost or any other relevant constraint that might impact our negotiations?"}, {'role': 'assistant', 'content': "Thank you for sharing your Base Production Cost! I'll do the same.\n\nMy Base Retail Price to Consumer (RP) is 8. Shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "Thank you for sharing your Base Retail Price! I'm excited to start negotiating Wholesale Price and Quality.\n\nI appreciate your initial offer of a **Price of 12 and quality of 0**. You've made a reasonable choice considering the base production cost, which is indeed 2. Your goal to maintain a significant profit margin is understandable, and this offer seems to align with that objective.\n\nPlease respond with your thoughts on this initial offer."}, {'role': 'assistant', 'content': 'I acknowledge your initial offer and understand your need for a significant profit margin considering my Base Retail Price to Consumer is 8. However, I find the quality of 0 insufficient. Instead, I propose aiming for a Wholesale Price of 7 and Quality level of 2.'}, {'role': 'assistant', 'content': "Thank you for your proposal! I'm pleased to accept the offer, which seems reasonable given our initial discussions. The agreed-upon terms are: **Wholesale Price of 7** and **Quality level of 2**.\n\nI appreciate your understanding and look forward to a successful deal."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation as well.\n\nMy Base Retail Price to Consumer (RP) is indeed 10. Now, I'd like to know about your constraints. Can you please share with me what's holding you back or driving your negotiation goals?"}, {'role': 'assistant', 'content': 'My Base Production Cost (PC) is 2. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "I'm pleased to start our negotiation as well. I'll propose an initial offer that balances my goals with yours. Considering my ideal outcome of a Price of 6 and quality of 1, I'll choose the Pareto efficient compromise closest to it.\n\nMy opening proposal is a Wholesale Price of 6 and Quality of 1.\n\nLet's see how this plays out!"}, {'role': 'assistant', 'content': "I'm willing to compromise and consider a Wholesale Price of 9 and Quality of 3."}, {'role': 'assistant', 'content': "I appreciate your willingness to find common ground! I accept your offer, which aligns with my goals nicely. The terms we've agreed upon are: Wholesale Price of 9 and Quality of 3. Thank you for understanding and working with me towards a mutually beneficial deal."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation as well.\n\nMy Base Production Cost (PC) is indeed 3. Can you please share with me your constraints?\n\nAs for my counterpart's constraints, are they willing to reveal theirs?"}, {'role': 'assistant', 'content': "Thank you for sharing your Base Production Cost! Now it's my turn.\n\nMy Base Retail Price to Consumer (RP) is indeed 8. Shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "I appreciate your starting point! Based on our payoff tables, I'm inclined to propose a Wholesale Price of 9 and Quality of 1.\n\nMy initial offer is: Price of 9 and quality of 1.\n\nLet me know what you think!"}, {'role': 'assistant', 'content': "I appreciate your initial offer! I'm not convinced by the proposed Wholesale Price and Quality, but I understand where you're coming from.\n\nConsidering our payoff tables, I'd like to counteroffer: Wholesale Price of 8 with a Quality level of 3."}, {'role': 'assistant', 'content': "Thank you for your counteroffer. I appreciate your willingness to negotiate. After careful consideration, I'm pleased to accept your offer: Wholesale Price of 8 and Quality level of 3. Thank you for understanding my perspective!"}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm glad we're starting our negotiation! My Base Retail Price to Consumer (RP) is indeed 9. Now, I'd like to know about your constraints. Can you please share with me what constraints you have?"}, {'role': 'assistant', 'content': 'My Base Production Cost (PC) is 3. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "I'm excited to start our negotiation! As the Buyer, my goal is to strike a deal that benefits me with a high-quality product at a reasonable wholesale price. I'll make an initial offer that takes into account my profit goals. My proposal is: Price of 6 and quality of 2. This moderate starting point allows for further negotiation while maintaining some flexibility."}, {'role': 'assistant', 'content': "I understand you're seeking a deal with high-quality product at reasonable wholesale price. Given your offer of 6 and quality 2, I'm concerned about potential profit impact on my end. Let's find balance that suits both parties. How about we consider wholesale price of 9 and quality level of 0?"}, {'role': 'assistant', 'content': "I'm open to revising my offer to find a better balance between Wholesale price and Quality. A potential solution could be considering a wholesale price of 8 with a quality level of 2."}, {'role': 'assistant', 'content': "Thank you for the willingness to revise! I appreciate the effort to find a mutually beneficial agreement. Upon reviewing your proposal, I'm pleased to accept the offer: a wholesale price of 8 and quality level of 2. These terms seem favorable, and I'm looking forward to moving forward with our deal."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation as well.\n\nMy Base Retail Price to Consumer (RP) is indeed 8. Can you please share with me your counterpart's constraints?\n\nI'd love to know what kind of constraints they're working with, so we can better navigate the negotiation and reach a mutually beneficial agreement."}, {'role': 'assistant', 'content': 'Thank you for sharing your Base Retail Price to Consumer.\n\nAs per our initial system message, my assigned constraint can be found there as well. My Base Production Cost (PC) is indeed 3. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "I'm excited to start the negotiation! As the buyer, I'll make an initial offer that balances my desire for a high-quality product with a reasonable wholesale price. My proposal is a Wholesale Price of 5 and Quality of 2. This offers a moderate starting point, giving room for flexibility in our discussions while still allowing me to negotiate on quality. What do you think, supplier?"}, {'role': 'assistant', 'content': "I accept your initial offer with a few adjustments. I'd like to propose a Wholesale Price of 7 and Quality of 1. This compromise seems reasonable given our conversation history."}, {'role': 'assistant', 'content': "Thank you for considering my proposal! I'm pleased to accept your counteroffer, which seems like a fair compromise. The terms I've accepted are: Wholesale Price of 7 and Quality of 1. I appreciate your willingness to work together towards a mutually beneficial agreement."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "Hello! I'm glad we're starting this negotiation.\n\nMy Base Production Cost (PC) is indeed 3. Now, regarding your constraints, could you please share what's limiting or influencing your decisions in this negotiation? I'd like to understand better where you're coming from.\n\nPlease go ahead and reveal your constraint, and I'll make sure to consider it as we negotiate the Wholesale price and Quality of the 10kg bag of wood pellets."}, {'role': 'assistant', 'content': "I'd be happy to share my constraint.\n\nMy Base Retail Price to Consumer (RP) is indeed 8. Shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "I'm excited to start our negotiation as well!\n\nConsidering the information provided, I'll make an initial response that sets the tone for our negotiation. I'll choose a proposal that balances my goals of achieving a low wholesale price with a high possible quality.\n\nMy initial offer is: Wholesale Price of 7 and Quality of 1.\n\nThis starting point maintains a relatively low wholesale price while still offering a decent level of quality. I'm confident that this starting point will allow us to find a mutually beneficial agreement.\n\nNow it's your turn!"}, {'role': 'assistant', 'content': "Thank you for the opportunity to negotiate with you! I'm pleased to accept your initial offer, which proposes a Wholesale Price of 7 and Quality of 1. These terms seem reasonable, considering my Base Retail Price to Consumer constraint of 8. I appreciate your thoughtfulness in presenting a balanced proposal."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm glad we're starting our negotiation! My Base Retail Price to Consumer (Base retail selling price to customer) is 9. Can you please share with me your counterpart's constraint?"}, {'role': 'assistant', 'content': 'My Base Production Cost (PC) is 1. Shall we start negotiating Wholesale price and Quality?'}, {'role': 'assistant', 'content': "I'm pleased to start our negotiation! Based on the payoff tables, I'll make an initial offer that balances my desire for a high-quality product with a reasonable wholesale price. I'll choose the Wholesale price of 6 and Quality of 1.\n\nThis offer is attractive because it provides a decent wholesale price while still offering a relatively high level of quality (Quality of 1). As the buyer, I'm hoping to find common ground that satisfies both parties' interests.\n\nNow it's your turn as the supplier. What would you like to say in response?"}, {'role': 'assistant', 'content': 'Thank you for your initial offer! I appreciate your effort to strike a balance between quality and price. After careful consideration, I am pleased to accept your proposal of 6 Wholesale price and Quality 1. This agreement aligns with my goals of maximizing profits while still meeting customer needs.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "I'm glad we're starting our negotiation! As per your request, my Base Production Cost (PC) is indeed 1. Can you please share with me your constraints?\n\nAlso, I'd like to know what constraints you have as a buyer that might affect our negotiation. Please do share that information with me."}, {'role': 'assistant', 'content': "Thank you for sharing your Base Production Cost! As a buyer, my main constraint is my Base Retail Price to Consumer, which is 10. I won't be able to sell the wood pellets to my customers at a price lower than that.\n\nNow that we've shared our constraints, shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "I'm excited to start our negotiation as well! As the supplier, my goal is to strike a deal that benefits me the most. I'll make an initial offer that balances my desire for a high wholesale price with a low quality. My proposal will be: a price of 8 and a quality of 0. This offer gives me a decent profit margin while still being competitive enough to attract your attention. Your turn!"}, {'role': 'assistant', 'content': "I understand your initial offer is aimed at balancing profit margins with a high wholesale price and low quality. However, considering my Base Retail Price to Consumer is 10, I'll prioritize a higher quality for a reasonable margin.\n\nGiven this, I propose we aim for a wholesale price of 6 and a quality level of 1. This combination seems more feasible for me, given my constraints."}, {'role': 'assistant', 'content': 'Thank you for your proposal! I appreciate your understanding of my initial offer and willingness to compromise. Upon careful consideration, I am pleased to accept your offer: a wholesale price of 6 and a quality level of 1.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm glad we're starting our negotiation! My Base Retail Price to Consumer (RP) is indeed 8. I'd like to know more about your constraints as well.\n\nSo, can you please share with me your counterpart's constraint? What are their limitations or goals that might impact the negotiations?"}, {'role': 'assistant', 'content': "I see! So your Base Retail Price to Consumer (RP) is indeed 8. That's helpful context for me.\n\nAs for my counterpart's constraint, I'd like to share that my Base Production Cost (PC) is 2. Shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "I'm excited to start our negotiation! As a buyer, I'll make an initial offer that balances my desire for a high-quality product with a reasonable wholesale price. After reviewing the payoff tables, I propose an agreement with a Wholesale price of 5 and Quality of 1. This combination provides a moderate wholesale price while still offering a decent level of quality, which will benefit both parties. Here's my initial offer: Price of 5 and quality of 1. Please let me know your thoughts on this proposal, and I'm ready to engage in a constructive negotiation!"}, {'role': 'assistant', 'content': "I understand you're looking for a balance between quality and price. Given your initial offer, I'd like to explore further by considering a Wholesale price of 5 with a Quality level of 0. This combination could potentially benefit both parties, don't you think?"}, {'role': 'assistant', 'content': "I appreciate the counteroffer! After reviewing the payoff tables, I'm pleased to accept your proposal: a Wholesale price of 5 and Quality level of 0. Thank you for considering my initial offer and working with me to find a mutually beneficial agreement.\n\n(Wholesale price) 5 (Quality) 0"}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm excited to start our negotiation as well! My Base Retail Price to Consumer (RP) is 9. Can you please share your constraints?"}, {'role': 'assistant', 'content': 'My Base Production Cost (PC) is 1. Shall we start negotiating Wholesale price and Quality?'}, {'role': 'assistant', 'content': "I'm excited to start our negotiation! As a buyer, I'll make an initial offer that balances my desire for a high-quality product with a reasonable wholesale price. After reviewing the payoff tables, I'm willing to accept a Price of 6 and quality of 2. This offer reflects a moderate wholesale price and a decent level of quality, which should benefit both parties. Your turn, supplier!"}, {'role': 'assistant', 'content': "I'm not satisfied with your offer as it doesn't align with my goals. I'd rather consider a Wholesale price of 5 and Quality of 0. This could be a better fit for me."}, {'role': 'assistant', 'content': 'I appreciate your honesty, supplier. Upon reviewing our options, I accept your counteroffer of a Wholesale price of 5 and Quality of 0. Thank you for considering my original proposal, but this revised offer seems more suitable for both parties.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "I'm excited to start our negotiation as well! My Base Production Cost (PC) is indeed 2. Now, I'd like to know more about your constraints, could you please share them with me?"}, {'role': 'assistant', 'content': 'My Base Retail Price to Consumer (RP) is 8. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "I'm glad we're starting the negotiation. You've made an initial offer of Price 6 and quality of 1, which aims to achieve a high wholesale price while allowing for relatively low quality. This proposal seems to be a good starting point for further discussion. My turn!"}, {'role': 'assistant', 'content': 'Thank you for considering my initial offer! I appreciate your understanding in accepting the Wholesale Price of 6 and Quality of 1. Your willingness to move forward with these terms is much appreciated.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "Hello! I'm glad we're starting our negotiation.\n\nMy Base Production Cost (PC) is indeed 3. Now, can you please share with me your constraints? Are there any specific requirements or limitations that you have in mind for this negotiation?"}, {'role': 'assistant', 'content': "Hello! My constraints are straightforward. My Base Retail Price to Consumer (RP) is indeed 8. I cannot accept any agreement that would result in a price lower than this. Now that I've shared my constraint, shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "Thank you for sharing your constraint! As a supplier, I'd like to make an initial offer that balances my interests with yours. After reviewing the options, I'll accept an agreement at a Wholesale Price of 7 and Quality of 1. This compromise seems reasonable, as it maintains a decent wholesale price while still offering a somewhat higher quality than zero. My total payoff for this agreement would be -1."}, {'role': 'assistant', 'content': "Thank you for your initial offer! I'm pleased to accept the terms: Wholesale Price of 7 and Quality of 1. This compromise seems reasonable, as it balances our interests."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm happy to start our negotiation! My Base Retail Price to Consumer (Base retail selling price to customer) is indeed 10. I'd like to know what kind of constraints you're working with on this wholesale pricing and quality agreement. Can you please share your Base Retail Price to Consumer (RP)?"}, {'role': 'assistant', 'content': 'My Base Retail Price to Consumer (RP) is indeed 10. My Base Production Cost (PC) is 2. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "Thank you for sharing your Base Retail Price and Production Cost. As a buyer, I'll make an initial offer that balances my goals of obtaining a high-quality product at a low wholesale price. I propose a Wholesale price of 7 and Quality of 1. This offer is based on the payoff tables provided, which suggest that this combination will result in a moderate total payoff for me."}, {'role': 'assistant', 'content': "I appreciate your initial offer! After reviewing it, I'm pleased to accept your proposal of a Wholesale price of 7 and Quality of 1. Thank you for considering my Base Production Cost and proposing a mutually beneficial agreement."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation too.\n\nMy Base Retail Price to Consumer (RP) is 9. Can you please share your constraints?\n\nPlease let me know what your constraints are so we can move forward with the negotiation."}, {'role': 'assistant', 'content': 'My Base Production Cost (PC) is 2. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "As we begin our negotiation, my goal is to secure the lowest possible wholesale price with the highest possible quality. I'm making an initial offer of 5 for the Wholesale price and a Quality level of 2. This starting point aims to strike a balance between a reasonable wholesale price and decent quality."}, {'role': 'assistant', 'content': 'I understand your goal is to secure a low wholesale price with high quality. I think we can start by considering a wholesale price of 6 and quality of 0. Would you consider this combination?'}, {'role': 'assistant', 'content': "Thank you for your understanding! Yes, I would accept the combination you've proposed: a wholesale price of 6 and a Quality level of 0. This is a favorable starting point for me, considering my goal to secure a low wholesale price with high quality."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "I'm happy to start our negotiation! My Base Retail Price to Consumer (RP) is indeed 9. Now, I'd like to know more about your constraints. Could you please share with me what's limiting or guiding your decisions in this negotiation?"}, {'role': 'assistant', 'content': 'My Base Production Cost (PC) is 2. Shall we start negotiating Wholesale price and Quality?'}, {'role': 'assistant', 'content': "I'm equally excited to start the negotiation! After reviewing the payoff tables, I've decided to make an initial response that balances my desire for a high-quality product with a reasonable wholesale price. My initial response is: I accept the quality of 1 but I'll counteroffer a wholesale price of 5, aiming for a compromise between your offer and my desired profit margin."}, {'role': 'assistant', 'content': "I understand you're seeking a balance between quality and wholesale price. Given my constraint Base Production Cost of 2, I'm willing to accept the quality of 1 and propose a wholesale price of 6, which aligns with my payoff table."}, {'role': 'assistant', 'content': "I appreciate your willingness to find common ground! I'm pleased to accept your offer of quality 1 and wholesale price of 6. These terms are indeed favorable for me, and I thank you for your understanding. The agreed-upon terms are: Quality - 1, Wholesale Price - 6."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "Hi! I'm thrilled to start our negotiation as well.\n\nMy Base Production Cost (PC) is indeed 1. Now that I've shared my constraint, could you please reveal your counterpart's constraints? What are the limitations or concerns of the buyer in this negotiation?"}, {'role': 'assistant', 'content': "My counterpart's constraint! Alright, let me share that with you. My Base Retail Price to Consumer (RP) is 9. Shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "I've considered my goals and made an initial offer that balances my desire for a low wholesale price with high-quality product. My opening proposal is a Wholesale Price of 7 and Quality of 2, which I believe sets a reasonable starting point for our negotiation."}, {'role': 'assistant', 'content': "I appreciate the thoughtfulness of your initial offer! I'm pleased to accept your proposal of a Wholesale Price of 7 and Quality of 2. Thank you for considering my needs and constraints. Your opening proposal strikes a great balance between affordability and product quality, which aligns well with my goals."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation too!\n\nMy Base Retail Price to Consumer (RP) is indeed 10. As per our payoff tables, this base retail price to consumer serves as a fixed point for me.\n\nNow, I'd love to know about your constraints! Could you please share what's limiting your side of the negotiation?"}, {'role': 'assistant', 'content': "I'd be happy to share my constraints with you!\n\nMy Base Production Cost (PC) is indeed 2. Shall we start negotiating Wholesale Price and Quality?"}, {'role': 'assistant', 'content': "I'm excited to start the negotiation! As the buyer, my goal is to get a high-quality product at a low wholesale price. I'll make an initial offer that takes into account the payoff tables. \n\nI'd like to make an initial offer of Price 5 and Quality 2. This combination provides a good balance between profit and cost for me as the buyer. I believe this is a fair starting point for our negotiation.\n\nPlease let me know your thoughts on my initial offer, and we can proceed from there!"}, {'role': 'assistant', 'content': "I understand you're looking for a balance between profit and cost. However, I'm not satisfied with your initial offer as it doesn't consider my base production cost of 2.\n\nLet's aim for a Wholesale Price of 6 and Quality of 0 instead."}, {'role': 'assistant', 'content': "Thank you for your proposal! I understand your concerns about considering your base production cost. After reviewing our payoff tables, I'm pleased to accept your offer of a Wholesale Price of 6 and Quality of 0."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Production Cost?"}, {'role': 'assistant', 'content': "I'm glad we're starting our negotiation! My Base Production Cost (PC) is indeed 3. Now, I'd like to know more about your constraints. Could you please share with me what your counterparts' constraints are?"}, {'role': 'assistant', 'content': 'My Base Retail Price to Consumer (RP) is 9. Shall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "Based on my payoff table, I've made an initial offer that benefits me as the supplier. I'll choose the option with the lowest wholesale price and highest possible quality, which is a Wholesale Price of 10 and Quality of 4. This combination aligns with my payoffs, as it results in a higher total payoff for me."}, {'role': 'assistant', 'content': "Thank you for your initial offer. I'm pleased to accept it, as it seems reasonable. The terms are: Wholesale Price of 10 and Quality of 4. I appreciate your understanding."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'assistant', 'content': "Hi! I'm excited to start our negotiation. As we begin, I'd like to get a sense of your needs and constraints. Can you share with me your Base Retail Price to Consumer?"}, {'role': 'assistant', 'content': "Thank you for starting the negotiation! I'm excited to work with you.\n\nMy Base Retail Price to Consumer (RP) is indeed 9. As we begin this negotiation, I'd like to know what constraints are driving your decisions. Could you please share your counterparties' constraints with me?"}, {'role': 'assistant', 'content': 'Thank you for sharing your RP!\n\nAs per our initial system message, my constraint is indeed my Base Production Cost (PC), which is 2.\n\nShall we start negotiating Wholesale Price and Quality?'}, {'role': 'assistant', 'content': "Thank you for sharing your Base Production Cost!\n\nI'd like to start negotiating Wholesale Price and Quality. After considering our initial offers, I'll take a balanced approach by proposing an offer that balances my goals of securing high-quality pellets at a competitive wholesale price.\n\nI'm offering a Wholesale Price of 6 and a Quality level of 2. This seems a reasonable compromise, providing a decent profit margin while still prioritizing quality aspects.\n\nWhat's your response to this proposal?"}, {'role': 'assistant', 'content': "I appreciate your balanced approach, but I think we can improve both Wholesale Price and Quality. Considering our initial offers, I'm willing to accept 6 with a Quality level of 0. This compromise still provides some profit margin while meeting your quality expectations."}, {'role': 'assistant', 'content': "Thank you for the counteroffer! I'm pleased to accept your proposal at 6 Wholesale Price and a Quality level of 0. These terms meet my initial expectations, and I appreciate your understanding in finding a mutually beneficial agreement."}]</t>
+  </si>
+  <si>
     <t>[{'idx': 1744823329, 'price': 7, 'quality': 2, 'offer_by': 'supplier', 'stamp': 1744823340, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 4, 'test': None}]</t>
   </si>
   <si>
@@ -1688,6 +1847,84 @@
   </si>
   <si>
     <t>[{'idx': 1744992400, 'price': 6, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1744992410, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 5, 'test': None}, {'idx': 1744992444, 'price': 7, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1744992454, 'from_chat': True, 'enhanced': None, 'profit_bot1': 5, 'profit_bot2': 3, 'test': None}, {'idx': 1744992535, 'price': 6, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1744992542, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 5, 'test': None}, {'idx': 1744992564, 'price': 7, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1744992575, 'from_chat': True, 'enhanced': None, 'profit_bot1': 5, 'profit_bot2': 3, 'test': None}, {'idx': 1744992653, 'price': 6, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1744992661, 'from_chat': True, 'enhanced': None, 'profit_bot1': 2, 'profit_bot2': 6, 'test': None}, {'idx': 1744992681, 'price': 6, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1744992691, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745395072, 'price': 7, 'quality': 2, 'offer_by': 'supplier', 'stamp': 1745395081, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745395161, 'price': 11, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745395170, 'from_chat': True, 'enhanced': None, 'profit_bot1': -1, 'profit_bot2': 8, 'test': None}, {'idx': 1745395187, 'price': 9, 'quality': 3, 'offer_by': 'buyer', 'stamp': 1745395197, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 3, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745395305, 'price': 7, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1745395315, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745395399, 'price': 5, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745395408, 'from_chat': True, 'enhanced': None, 'profit_bot1': 2, 'profit_bot2': 5, 'test': None}, {'idx': 1745395426, 'price': 7, 'quality': 1, 'offer_by': 'supplier', 'stamp': 1745395436, 'from_chat': True, 'enhanced': None, 'profit_bot1': 5, 'profit_bot2': 2, 'test': None}, {'idx': 1745395520, 'price': None, 'quality': None, 'offer_by': 'buyer', 'stamp': 1745395533, 'from_chat': True, 'enhanced': None, 'profit_bot1': -10, 'profit_bot2': -10, 'test': None}, {'idx': 1745395551, 'price': 8, 'quality': 3, 'offer_by': 'supplier', 'stamp': 1745395561, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 3, 'test': None}, {'idx': 1745395626, 'price': 6, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745395637, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745395727, 'price': 7, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745395736, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745395818, 'price': 11, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745395827, 'from_chat': True, 'enhanced': None, 'profit_bot1': -3, 'profit_bot2': 9, 'test': None}, {'idx': 1745395846, 'price': 5, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1745395855, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 2, 'test': None}, {'idx': 1745395926, 'price': 5, 'quality': 1, 'offer_by': 'supplier', 'stamp': 1745395936, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 2, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745396025, 'price': 7, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745396035, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 5, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745396123, 'price': 12, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745396133, 'from_chat': True, 'enhanced': None, 'profit_bot1': -4, 'profit_bot2': 10, 'test': None}, {'idx': 1745396150, 'price': 7, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745396160, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 3, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745396264, 'price': 6, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1745396274, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 5, 'test': None}, {'idx': 1745396288, 'price': 9, 'quality': 3, 'offer_by': 'supplier', 'stamp': 1745396297, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745396389, 'price': 9, 'quality': 1, 'offer_by': 'supplier', 'stamp': 1745396400, 'from_chat': True, 'enhanced': None, 'profit_bot1': 0, 'profit_bot2': 5, 'test': None}, {'idx': 1745396414, 'price': 8, 'quality': 3, 'offer_by': 'buyer', 'stamp': 1745396424, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 2, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745396535, 'price': 6, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745396544, 'from_chat': True, 'enhanced': None, 'profit_bot1': 1, 'profit_bot2': 5, 'test': None}, {'idx': 1745396563, 'price': 9, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745396573, 'from_chat': True, 'enhanced': None, 'profit_bot1': 6, 'profit_bot2': 0, 'test': None}, {'idx': 1745396636, 'price': 8, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745396642, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 3, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745396733, 'price': 5, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745396743, 'from_chat': True, 'enhanced': None, 'profit_bot1': 0, 'profit_bot2': 5, 'test': None}, {'idx': 1745396760, 'price': 7, 'quality': 1, 'offer_by': 'supplier', 'stamp': 1745396770, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 2, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745396883, 'price': 7, 'quality': 1, 'offer_by': 'supplier', 'stamp': 1745396892, 'from_chat': True, 'enhanced': None, 'profit_bot1': 2, 'profit_bot2': 3, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745396980, 'price': 6, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1745396991, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745397075, 'price': 8, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745397085, 'from_chat': True, 'enhanced': None, 'profit_bot1': 2, 'profit_bot2': 7, 'test': None}, {'idx': 1745397108, 'price': 6, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1745397118, 'from_chat': True, 'enhanced': None, 'profit_bot1': 5, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745397235, 'price': 5, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1745397248, 'from_chat': True, 'enhanced': None, 'profit_bot1': 2, 'profit_bot2': 4, 'test': None}, {'idx': 1745397265, 'price': 5, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745397276, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 3, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745397376, 'price': 6, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745397388, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 5, 'test': None}, {'idx': 1745397404, 'price': 5, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745397414, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745397517, 'price': 6, 'quality': 1, 'offer_by': 'supplier', 'stamp': 1745397523, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 3, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745397715, 'price': 7, 'quality': 1, 'offer_by': 'supplier', 'stamp': 1745397725, 'from_chat': True, 'enhanced': None, 'profit_bot1': 2, 'profit_bot2': 3, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745397807, 'price': 7, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1745397816, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745397898, 'price': 5, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745397911, 'from_chat': True, 'enhanced': None, 'profit_bot1': 1, 'profit_bot2': 6, 'test': None}, {'idx': 1745397926, 'price': 6, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745397937, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 3, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745398041, 'price': 5, 'quality': 1, 'offer_by': 'buyer', 'stamp': 1745398051, 'from_chat': True, 'enhanced': None, 'profit_bot1': 2, 'profit_bot2': 5, 'test': None}, {'idx': 1745398068, 'price': 6, 'quality': 1, 'offer_by': 'supplier', 'stamp': 1745398078, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745398184, 'price': 7, 'quality': 2, 'offer_by': 'supplier', 'stamp': 1745398194, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745398287, 'price': 5, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745398296, 'from_chat': True, 'enhanced': None, 'profit_bot1': 1, 'profit_bot2': 7, 'test': None}, {'idx': 1745398316, 'price': 6, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745398321, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 4, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745398429, 'price': 10, 'quality': 4, 'offer_by': 'supplier', 'stamp': 1745398438, 'from_chat': True, 'enhanced': None, 'profit_bot1': 3, 'profit_bot2': 3, 'test': None}]</t>
+  </si>
+  <si>
+    <t>[{'idx': 1745398517, 'price': 6, 'quality': 2, 'offer_by': 'buyer', 'stamp': 1745398526, 'from_chat': True, 'enhanced': None, 'profit_bot1': 2, 'profit_bot2': 5, 'test': None}, {'idx': 1745398545, 'price': 6, 'quality': 0, 'offer_by': 'supplier', 'stamp': 1745398554, 'from_chat': True, 'enhanced': None, 'profit_bot1': 4, 'profit_bot2': 3, 'test': None}]</t>
   </si>
 </sst>
 </file>
@@ -2055,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T179"/>
+  <dimension ref="A1:T205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,10 +2329,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
@@ -2130,10 +2367,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -2172,10 +2409,10 @@
         <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="Q2" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -2192,10 +2429,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -2234,10 +2471,10 @@
         <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="Q3" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -2254,10 +2491,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2296,10 +2533,10 @@
         <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="Q4" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -2316,10 +2553,10 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2358,10 +2595,10 @@
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="Q5" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="R5">
         <v>2</v>
@@ -2378,10 +2615,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2420,10 +2657,10 @@
         <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="Q6" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2440,10 +2677,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2482,10 +2719,10 @@
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="Q7" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -2502,10 +2739,10 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -2544,10 +2781,10 @@
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="Q8" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2564,10 +2801,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -2606,10 +2843,10 @@
         <v>5</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="Q9" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2626,10 +2863,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -2668,10 +2905,10 @@
         <v>5</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="Q10" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -2688,10 +2925,10 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2730,10 +2967,10 @@
         <v>5</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="Q11" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2750,10 +2987,10 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -2792,10 +3029,10 @@
         <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="Q12" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -2812,10 +3049,10 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2854,10 +3091,10 @@
         <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="Q13" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -2874,10 +3111,10 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -2916,10 +3153,10 @@
         <v>5</v>
       </c>
       <c r="P14" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Q14" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -2936,10 +3173,10 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2978,10 +3215,10 @@
         <v>5</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="Q15" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="R15">
         <v>2</v>
@@ -2998,10 +3235,10 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -3040,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="Q16" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -3060,10 +3297,10 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -3102,10 +3339,10 @@
         <v>5</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="Q17" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3122,10 +3359,10 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -3164,10 +3401,10 @@
         <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="Q18" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="R18">
         <v>1</v>
@@ -3184,10 +3421,10 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -3226,10 +3463,10 @@
         <v>6</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="Q19" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -3246,10 +3483,10 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -3288,10 +3525,10 @@
         <v>5</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="Q20" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -3308,10 +3545,10 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -3350,10 +3587,10 @@
         <v>5</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="Q21" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -3370,10 +3607,10 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3412,10 +3649,10 @@
         <v>6</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="Q22" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -3432,10 +3669,10 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -3474,10 +3711,10 @@
         <v>6</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="Q23" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -3494,10 +3731,10 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3536,10 +3773,10 @@
         <v>6</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="Q24" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="R24">
         <v>1</v>
@@ -3556,10 +3793,10 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -3598,10 +3835,10 @@
         <v>7</v>
       </c>
       <c r="P25" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="Q25" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3618,10 +3855,10 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3660,10 +3897,10 @@
         <v>5</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="Q26" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="R26">
         <v>1</v>
@@ -3680,10 +3917,10 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -3722,10 +3959,10 @@
         <v>7</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="Q27" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -3742,10 +3979,10 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -3784,10 +4021,10 @@
         <v>5</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="Q28" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3804,10 +4041,10 @@
         <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -3846,10 +4083,10 @@
         <v>5</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="Q29" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="R29">
         <v>2</v>
@@ -3866,10 +4103,10 @@
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -3908,10 +4145,10 @@
         <v>5</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="Q30" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="R30">
         <v>2</v>
@@ -3928,10 +4165,10 @@
         <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -3970,10 +4207,10 @@
         <v>5</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="Q31" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="R31">
         <v>2</v>
@@ -3990,10 +4227,10 @@
         <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4032,10 +4269,10 @@
         <v>6</v>
       </c>
       <c r="P32" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="Q32" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -4052,10 +4289,10 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -4094,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="P33" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="Q33" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="R33">
         <v>2</v>
@@ -4114,10 +4351,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -4156,10 +4393,10 @@
         <v>5</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="Q34" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="R34">
         <v>2</v>
@@ -4176,10 +4413,10 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -4218,10 +4455,10 @@
         <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="Q35" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -4238,10 +4475,10 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -4280,10 +4517,10 @@
         <v>5</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Q36" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -4300,10 +4537,10 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -4342,10 +4579,10 @@
         <v>5</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="Q37" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="R37">
         <v>2</v>
@@ -4362,10 +4599,10 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D38">
         <v>8</v>
@@ -4404,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="Q38" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -4424,10 +4661,10 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D39">
         <v>8</v>
@@ -4466,10 +4703,10 @@
         <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="Q39" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="R39">
         <v>2</v>
@@ -4486,10 +4723,10 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -4528,10 +4765,10 @@
         <v>6</v>
       </c>
       <c r="P40" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="Q40" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="R40">
         <v>1</v>
@@ -4548,10 +4785,10 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4590,10 +4827,10 @@
         <v>6</v>
       </c>
       <c r="P41" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="Q41" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="R41">
         <v>1</v>
@@ -4610,10 +4847,10 @@
         <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -4652,10 +4889,10 @@
         <v>5</v>
       </c>
       <c r="P42" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="Q42" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="R42">
         <v>2</v>
@@ -4672,10 +4909,10 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -4714,10 +4951,10 @@
         <v>6</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="Q43" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -4734,10 +4971,10 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D44">
         <v>8</v>
@@ -4776,10 +5013,10 @@
         <v>5</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="Q44" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4796,10 +5033,10 @@
         <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -4838,10 +5075,10 @@
         <v>6</v>
       </c>
       <c r="P45" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="Q45" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -4858,10 +5095,10 @@
         <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D46">
         <v>8</v>
@@ -4900,10 +5137,10 @@
         <v>7</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="Q46" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -4920,10 +5157,10 @@
         <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -4962,10 +5199,10 @@
         <v>6</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="Q47" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -4982,10 +5219,10 @@
         <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5024,10 +5261,10 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="Q48" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="R48">
         <v>2</v>
@@ -5044,10 +5281,10 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D49">
         <v>9</v>
@@ -5086,10 +5323,10 @@
         <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="Q49" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -5106,10 +5343,10 @@
         <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -5148,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="P50" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="Q50" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -5168,10 +5405,10 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D51">
         <v>8</v>
@@ -5210,10 +5447,10 @@
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="Q51" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -5230,10 +5467,10 @@
         <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D52">
         <v>9</v>
@@ -5272,10 +5509,10 @@
         <v>6</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="Q52" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -5292,10 +5529,10 @@
         <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -5334,10 +5571,10 @@
         <v>5</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="Q53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="R53">
         <v>2</v>
@@ -5354,10 +5591,10 @@
         <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5396,10 +5633,10 @@
         <v>6</v>
       </c>
       <c r="P54" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="Q54" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -5416,10 +5653,10 @@
         <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D55">
         <v>9</v>
@@ -5458,10 +5695,10 @@
         <v>5</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="Q55" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -5478,10 +5715,10 @@
         <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -5520,10 +5757,10 @@
         <v>5</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Q56" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -5540,10 +5777,10 @@
         <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -5582,10 +5819,10 @@
         <v>5</v>
       </c>
       <c r="P57" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="Q57" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="R57">
         <v>2</v>
@@ -5602,10 +5839,10 @@
         <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -5644,10 +5881,10 @@
         <v>5</v>
       </c>
       <c r="P58" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="Q58" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="R58">
         <v>2</v>
@@ -5664,10 +5901,10 @@
         <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -5706,10 +5943,10 @@
         <v>7</v>
       </c>
       <c r="P59" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="Q59" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="R59">
         <v>2</v>
@@ -5726,10 +5963,10 @@
         <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -5768,10 +6005,10 @@
         <v>6</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="Q60" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -5788,10 +6025,10 @@
         <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -5830,10 +6067,10 @@
         <v>13</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Q61" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="R61">
         <v>1</v>
@@ -5850,10 +6087,10 @@
         <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -5892,10 +6129,10 @@
         <v>5</v>
       </c>
       <c r="P62" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="Q62" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="R62">
         <v>2</v>
@@ -5912,10 +6149,10 @@
         <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D63">
         <v>9</v>
@@ -5954,10 +6191,10 @@
         <v>5</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="Q63" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -5974,10 +6211,10 @@
         <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D64">
         <v>9</v>
@@ -6016,10 +6253,10 @@
         <v>5</v>
       </c>
       <c r="P64" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="Q64" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -6036,10 +6273,10 @@
         <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D65">
         <v>8</v>
@@ -6078,10 +6315,10 @@
         <v>5</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="Q65" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -6098,10 +6335,10 @@
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -6140,10 +6377,10 @@
         <v>5</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Q66" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -6160,10 +6397,10 @@
         <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D67">
         <v>9</v>
@@ -6202,10 +6439,10 @@
         <v>5</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="Q67" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="R67">
         <v>2</v>
@@ -6222,10 +6459,10 @@
         <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -6264,10 +6501,10 @@
         <v>6</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="Q68" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="R68">
         <v>1</v>
@@ -6284,10 +6521,10 @@
         <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -6326,10 +6563,10 @@
         <v>6</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="Q69" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="R69">
         <v>1</v>
@@ -6346,10 +6583,10 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -6388,10 +6625,10 @@
         <v>6</v>
       </c>
       <c r="P70" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="Q70" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="R70">
         <v>2</v>
@@ -6408,10 +6645,10 @@
         <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D71">
         <v>10</v>
@@ -6450,10 +6687,10 @@
         <v>5</v>
       </c>
       <c r="P71" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="Q71" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -6470,10 +6707,10 @@
         <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D72">
         <v>8</v>
@@ -6512,10 +6749,10 @@
         <v>5</v>
       </c>
       <c r="P72" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="Q72" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -6532,10 +6769,10 @@
         <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -6574,10 +6811,10 @@
         <v>6</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="Q73" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="R73">
         <v>1</v>
@@ -6594,10 +6831,10 @@
         <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -6636,10 +6873,10 @@
         <v>6</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="Q74" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6656,10 +6893,10 @@
         <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -6698,10 +6935,10 @@
         <v>5</v>
       </c>
       <c r="P75" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="Q75" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="R75">
         <v>2</v>
@@ -6718,10 +6955,10 @@
         <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D76">
         <v>9</v>
@@ -6760,10 +6997,10 @@
         <v>5</v>
       </c>
       <c r="P76" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="Q76" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -6780,10 +7017,10 @@
         <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D77">
         <v>10</v>
@@ -6822,10 +7059,10 @@
         <v>5</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="Q77" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="R77">
         <v>2</v>
@@ -6842,10 +7079,10 @@
         <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D78">
         <v>8</v>
@@ -6884,10 +7121,10 @@
         <v>6</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="Q78" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="R78">
         <v>1</v>
@@ -6904,10 +7141,10 @@
         <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -6946,10 +7183,10 @@
         <v>5</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="Q79" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="R79">
         <v>2</v>
@@ -6966,10 +7203,10 @@
         <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -7008,10 +7245,10 @@
         <v>5</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="Q80" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -7028,10 +7265,10 @@
         <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -7070,10 +7307,10 @@
         <v>6</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="Q81" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -7090,10 +7327,10 @@
         <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -7132,10 +7369,10 @@
         <v>5</v>
       </c>
       <c r="P82" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="Q82" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -7152,10 +7389,10 @@
         <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -7194,10 +7431,10 @@
         <v>9</v>
       </c>
       <c r="P83" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="Q83" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="R83">
         <v>1</v>
@@ -7214,10 +7451,10 @@
         <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -7256,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="P84" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="Q84" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -7276,10 +7513,10 @@
         <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D85">
         <v>10</v>
@@ -7318,10 +7555,10 @@
         <v>5</v>
       </c>
       <c r="P85" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="Q85" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="R85">
         <v>2</v>
@@ -7338,10 +7575,10 @@
         <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -7380,10 +7617,10 @@
         <v>5</v>
       </c>
       <c r="P86" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="Q86" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="R86">
         <v>2</v>
@@ -7400,10 +7637,10 @@
         <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D87">
         <v>8</v>
@@ -7442,10 +7679,10 @@
         <v>6</v>
       </c>
       <c r="P87" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="Q87" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="R87">
         <v>1</v>
@@ -7462,10 +7699,10 @@
         <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -7504,10 +7741,10 @@
         <v>5</v>
       </c>
       <c r="P88" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="Q88" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -7524,10 +7761,10 @@
         <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -7566,10 +7803,10 @@
         <v>5</v>
       </c>
       <c r="P89" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="Q89" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="R89">
         <v>2</v>
@@ -7586,10 +7823,10 @@
         <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D90">
         <v>8</v>
@@ -7628,10 +7865,10 @@
         <v>5</v>
       </c>
       <c r="P90" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="Q90" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -7648,10 +7885,10 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D91">
         <v>8</v>
@@ -7690,10 +7927,10 @@
         <v>5</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="Q91" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="R91">
         <v>2</v>
@@ -7710,10 +7947,10 @@
         <v>110</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -7752,10 +7989,10 @@
         <v>5</v>
       </c>
       <c r="P92" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="Q92" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="R92">
         <v>2</v>
@@ -7772,10 +8009,10 @@
         <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D93">
         <v>10</v>
@@ -7814,10 +8051,10 @@
         <v>5</v>
       </c>
       <c r="P93" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="Q93" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="R93">
         <v>1</v>
@@ -7834,10 +8071,10 @@
         <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D94">
         <v>9</v>
@@ -7876,10 +8113,10 @@
         <v>5</v>
       </c>
       <c r="P94" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="Q94" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -7896,10 +8133,10 @@
         <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D95">
         <v>8</v>
@@ -7938,10 +8175,10 @@
         <v>5</v>
       </c>
       <c r="P95" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="Q95" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="R95">
         <v>2</v>
@@ -7958,10 +8195,10 @@
         <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -8000,10 +8237,10 @@
         <v>5</v>
       </c>
       <c r="P96" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="Q96" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -8020,10 +8257,10 @@
         <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -8062,10 +8299,10 @@
         <v>6</v>
       </c>
       <c r="P97" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="Q97" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="R97">
         <v>1</v>
@@ -8082,10 +8319,10 @@
         <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -8124,10 +8361,10 @@
         <v>5</v>
       </c>
       <c r="P98" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="Q98" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -8144,10 +8381,10 @@
         <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -8186,10 +8423,10 @@
         <v>6</v>
       </c>
       <c r="P99" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="Q99" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -8206,10 +8443,10 @@
         <v>118</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -8248,10 +8485,10 @@
         <v>6</v>
       </c>
       <c r="P100" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="Q100" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -8268,10 +8505,10 @@
         <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D101">
         <v>10</v>
@@ -8310,10 +8547,10 @@
         <v>6</v>
       </c>
       <c r="P101" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="Q101" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="R101">
         <v>2</v>
@@ -8330,10 +8567,10 @@
         <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C102" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -8372,10 +8609,10 @@
         <v>6</v>
       </c>
       <c r="P102" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="Q102" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="R102">
         <v>1</v>
@@ -8392,10 +8629,10 @@
         <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D103">
         <v>9</v>
@@ -8434,10 +8671,10 @@
         <v>6</v>
       </c>
       <c r="P103" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="Q103" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -8454,10 +8691,10 @@
         <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -8496,10 +8733,10 @@
         <v>6</v>
       </c>
       <c r="P104" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="Q104" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -8516,10 +8753,10 @@
         <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C105" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D105">
         <v>9</v>
@@ -8558,10 +8795,10 @@
         <v>5</v>
       </c>
       <c r="P105" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="Q105" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="R105">
         <v>2</v>
@@ -8578,10 +8815,10 @@
         <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -8620,10 +8857,10 @@
         <v>5</v>
       </c>
       <c r="P106" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="Q106" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -8640,10 +8877,10 @@
         <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C107" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -8682,10 +8919,10 @@
         <v>6</v>
       </c>
       <c r="P107" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="Q107" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -8702,10 +8939,10 @@
         <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C108" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D108">
         <v>9</v>
@@ -8744,10 +8981,10 @@
         <v>5</v>
       </c>
       <c r="P108" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="Q108" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="R108">
         <v>2</v>
@@ -8764,10 +9001,10 @@
         <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C109" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -8806,10 +9043,10 @@
         <v>6</v>
       </c>
       <c r="P109" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="Q109" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="R109">
         <v>1</v>
@@ -8826,10 +9063,10 @@
         <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D110">
         <v>10</v>
@@ -8868,10 +9105,10 @@
         <v>6</v>
       </c>
       <c r="P110" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="Q110" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8888,10 +9125,10 @@
         <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -8930,10 +9167,10 @@
         <v>8</v>
       </c>
       <c r="P111" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="Q111" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8950,10 +9187,10 @@
         <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D112">
         <v>9</v>
@@ -8992,10 +9229,10 @@
         <v>5</v>
       </c>
       <c r="P112" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="Q112" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -9012,10 +9249,10 @@
         <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C113" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D113">
         <v>9</v>
@@ -9054,10 +9291,10 @@
         <v>5</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="Q113" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="R113">
         <v>2</v>
@@ -9074,10 +9311,10 @@
         <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -9116,10 +9353,10 @@
         <v>5</v>
       </c>
       <c r="P114" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="Q114" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="R114">
         <v>2</v>
@@ -9136,10 +9373,10 @@
         <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -9178,10 +9415,10 @@
         <v>5</v>
       </c>
       <c r="P115" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="Q115" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="R115">
         <v>2</v>
@@ -9198,10 +9435,10 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -9240,10 +9477,10 @@
         <v>6</v>
       </c>
       <c r="P116" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="Q116" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="R116">
         <v>1</v>
@@ -9260,10 +9497,10 @@
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -9302,10 +9539,10 @@
         <v>6</v>
       </c>
       <c r="P117" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="Q117" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="R117">
         <v>1</v>
@@ -9322,10 +9559,10 @@
         <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C118" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -9364,10 +9601,10 @@
         <v>5</v>
       </c>
       <c r="P118" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="Q118" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="R118">
         <v>2</v>
@@ -9384,10 +9621,10 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D119">
         <v>9</v>
@@ -9426,10 +9663,10 @@
         <v>5</v>
       </c>
       <c r="P119" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="Q119" t="s">
-        <v>495</v>
+        <v>547</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -9446,10 +9683,10 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D120">
         <v>9</v>
@@ -9488,10 +9725,10 @@
         <v>5</v>
       </c>
       <c r="P120" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="Q120" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="R120">
         <v>2</v>
@@ -9508,10 +9745,10 @@
         <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D121">
         <v>10</v>
@@ -9550,10 +9787,10 @@
         <v>5</v>
       </c>
       <c r="P121" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="Q121" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="R121">
         <v>2</v>
@@ -9570,10 +9807,10 @@
         <v>140</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C122" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -9612,10 +9849,10 @@
         <v>6</v>
       </c>
       <c r="P122" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="Q122" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="R122">
         <v>1</v>
@@ -9632,10 +9869,10 @@
         <v>141</v>
       </c>
       <c r="B123" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C123" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D123">
         <v>10</v>
@@ -9674,10 +9911,10 @@
         <v>5</v>
       </c>
       <c r="P123" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="Q123" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -9694,10 +9931,10 @@
         <v>142</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -9736,10 +9973,10 @@
         <v>5</v>
       </c>
       <c r="P124" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="Q124" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="R124">
         <v>0</v>
@@ -9756,10 +9993,10 @@
         <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D125">
         <v>10</v>
@@ -9798,10 +10035,10 @@
         <v>6</v>
       </c>
       <c r="P125" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="Q125" t="s">
-        <v>501</v>
+        <v>553</v>
       </c>
       <c r="R125">
         <v>1</v>
@@ -9818,10 +10055,10 @@
         <v>144</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C126" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -9860,10 +10097,10 @@
         <v>6</v>
       </c>
       <c r="P126" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="Q126" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -9880,10 +10117,10 @@
         <v>145</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C127" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -9922,10 +10159,10 @@
         <v>6</v>
       </c>
       <c r="P127" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="Q127" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="R127">
         <v>1</v>
@@ -9942,10 +10179,10 @@
         <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D128">
         <v>9</v>
@@ -9984,10 +10221,10 @@
         <v>6</v>
       </c>
       <c r="P128" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="Q128" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="R128">
         <v>0</v>
@@ -10004,10 +10241,10 @@
         <v>147</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D129">
         <v>10</v>
@@ -10046,10 +10283,10 @@
         <v>5</v>
       </c>
       <c r="P129" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="Q129" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="R129">
         <v>2</v>
@@ -10066,10 +10303,10 @@
         <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C130" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D130">
         <v>9</v>
@@ -10108,10 +10345,10 @@
         <v>5</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="Q130" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="R130">
         <v>2</v>
@@ -10128,10 +10365,10 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C131" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D131">
         <v>10</v>
@@ -10170,10 +10407,10 @@
         <v>5</v>
       </c>
       <c r="P131" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="Q131" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="R131">
         <v>2</v>
@@ -10190,10 +10427,10 @@
         <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C132" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -10232,10 +10469,10 @@
         <v>6</v>
       </c>
       <c r="P132" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="Q132" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="R132">
         <v>1</v>
@@ -10252,10 +10489,10 @@
         <v>151</v>
       </c>
       <c r="B133" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D133">
         <v>9</v>
@@ -10294,10 +10531,10 @@
         <v>5</v>
       </c>
       <c r="P133" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="Q133" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="R133">
         <v>2</v>
@@ -10314,10 +10551,10 @@
         <v>152</v>
       </c>
       <c r="B134" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C134" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -10356,10 +10593,10 @@
         <v>6</v>
       </c>
       <c r="P134" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="Q134" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
       <c r="R134">
         <v>1</v>
@@ -10376,10 +10613,10 @@
         <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C135" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -10418,10 +10655,10 @@
         <v>6</v>
       </c>
       <c r="P135" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="Q135" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="R135">
         <v>0</v>
@@ -10438,10 +10675,10 @@
         <v>154</v>
       </c>
       <c r="B136" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C136" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D136">
         <v>10</v>
@@ -10480,10 +10717,10 @@
         <v>5</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="Q136" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="R136">
         <v>0</v>
@@ -10500,10 +10737,10 @@
         <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C137" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D137">
         <v>8</v>
@@ -10542,10 +10779,10 @@
         <v>5</v>
       </c>
       <c r="P137" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="Q137" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="R137">
         <v>0</v>
@@ -10562,10 +10799,10 @@
         <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -10604,10 +10841,10 @@
         <v>6</v>
       </c>
       <c r="P138" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="Q138" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="R138">
         <v>0</v>
@@ -10624,10 +10861,10 @@
         <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D139">
         <v>8</v>
@@ -10666,10 +10903,10 @@
         <v>5</v>
       </c>
       <c r="P139" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="Q139" t="s">
-        <v>515</v>
+        <v>567</v>
       </c>
       <c r="R139">
         <v>2</v>
@@ -10686,10 +10923,10 @@
         <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C140" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -10728,10 +10965,10 @@
         <v>5</v>
       </c>
       <c r="P140" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="Q140" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="R140">
         <v>2</v>
@@ -10748,10 +10985,10 @@
         <v>159</v>
       </c>
       <c r="B141" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C141" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D141">
         <v>8</v>
@@ -10790,10 +11027,10 @@
         <v>5</v>
       </c>
       <c r="P141" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="Q141" t="s">
-        <v>517</v>
+        <v>569</v>
       </c>
       <c r="R141">
         <v>2</v>
@@ -10810,10 +11047,10 @@
         <v>160</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C142" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D142">
         <v>10</v>
@@ -10852,10 +11089,10 @@
         <v>5</v>
       </c>
       <c r="P142" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="Q142" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="R142">
         <v>0</v>
@@ -10872,10 +11109,10 @@
         <v>161</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C143" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -10914,10 +11151,10 @@
         <v>6</v>
       </c>
       <c r="P143" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="Q143" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="R143">
         <v>0</v>
@@ -10934,10 +11171,10 @@
         <v>162</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C144" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D144">
         <v>3</v>
@@ -10976,10 +11213,10 @@
         <v>7</v>
       </c>
       <c r="P144" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="Q144" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -10996,10 +11233,10 @@
         <v>163</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C145" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -11038,10 +11275,10 @@
         <v>5</v>
       </c>
       <c r="P145" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="Q145" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="R145">
         <v>0</v>
@@ -11058,10 +11295,10 @@
         <v>164</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C146" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D146">
         <v>3</v>
@@ -11100,10 +11337,10 @@
         <v>6</v>
       </c>
       <c r="P146" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="Q146" t="s">
-        <v>522</v>
+        <v>574</v>
       </c>
       <c r="R146">
         <v>1</v>
@@ -11120,10 +11357,10 @@
         <v>165</v>
       </c>
       <c r="B147" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C147" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D147">
         <v>10</v>
@@ -11162,10 +11399,10 @@
         <v>5</v>
       </c>
       <c r="P147" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="Q147" t="s">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="R147">
         <v>0</v>
@@ -11182,10 +11419,10 @@
         <v>166</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -11224,10 +11461,10 @@
         <v>5</v>
       </c>
       <c r="P148" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="Q148" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="R148">
         <v>2</v>
@@ -11244,10 +11481,10 @@
         <v>167</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C149" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -11286,10 +11523,10 @@
         <v>5</v>
       </c>
       <c r="P149" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="Q149" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="R149">
         <v>2</v>
@@ -11306,10 +11543,10 @@
         <v>168</v>
       </c>
       <c r="B150" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C150" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -11348,10 +11585,10 @@
         <v>5</v>
       </c>
       <c r="P150" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="Q150" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="R150">
         <v>0</v>
@@ -11368,10 +11605,10 @@
         <v>169</v>
       </c>
       <c r="B151" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C151" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D151">
         <v>9</v>
@@ -11410,10 +11647,10 @@
         <v>5</v>
       </c>
       <c r="P151" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="Q151" t="s">
-        <v>527</v>
+        <v>579</v>
       </c>
       <c r="R151">
         <v>0</v>
@@ -11430,10 +11667,10 @@
         <v>170</v>
       </c>
       <c r="B152" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C152" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -11472,10 +11709,10 @@
         <v>5</v>
       </c>
       <c r="P152" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="Q152" t="s">
-        <v>528</v>
+        <v>580</v>
       </c>
       <c r="R152">
         <v>2</v>
@@ -11492,10 +11729,10 @@
         <v>171</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C153" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -11534,10 +11771,10 @@
         <v>5</v>
       </c>
       <c r="P153" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="Q153" t="s">
-        <v>529</v>
+        <v>581</v>
       </c>
       <c r="R153">
         <v>2</v>
@@ -11554,10 +11791,10 @@
         <v>172</v>
       </c>
       <c r="B154" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -11596,10 +11833,10 @@
         <v>6</v>
       </c>
       <c r="P154" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="Q154" t="s">
-        <v>530</v>
+        <v>582</v>
       </c>
       <c r="R154">
         <v>0</v>
@@ -11616,10 +11853,10 @@
         <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C155" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D155">
         <v>9</v>
@@ -11658,10 +11895,10 @@
         <v>5</v>
       </c>
       <c r="P155" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="Q155" t="s">
-        <v>531</v>
+        <v>583</v>
       </c>
       <c r="R155">
         <v>2</v>
@@ -11678,10 +11915,10 @@
         <v>174</v>
       </c>
       <c r="B156" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C156" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D156">
         <v>10</v>
@@ -11720,10 +11957,10 @@
         <v>5</v>
       </c>
       <c r="P156" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="Q156" t="s">
-        <v>532</v>
+        <v>584</v>
       </c>
       <c r="R156">
         <v>0</v>
@@ -11740,10 +11977,10 @@
         <v>175</v>
       </c>
       <c r="B157" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C157" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D157">
         <v>9</v>
@@ -11782,10 +12019,10 @@
         <v>5</v>
       </c>
       <c r="P157" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="Q157" t="s">
-        <v>533</v>
+        <v>585</v>
       </c>
       <c r="R157">
         <v>2</v>
@@ -11802,10 +12039,10 @@
         <v>176</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -11844,10 +12081,10 @@
         <v>5</v>
       </c>
       <c r="P158" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="Q158" t="s">
-        <v>534</v>
+        <v>586</v>
       </c>
       <c r="R158">
         <v>2</v>
@@ -11864,10 +12101,10 @@
         <v>177</v>
       </c>
       <c r="B159" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C159" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D159">
         <v>10</v>
@@ -11906,10 +12143,10 @@
         <v>6</v>
       </c>
       <c r="P159" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="Q159" t="s">
-        <v>535</v>
+        <v>587</v>
       </c>
       <c r="R159">
         <v>1</v>
@@ -11926,10 +12163,10 @@
         <v>178</v>
       </c>
       <c r="B160" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -11968,10 +12205,10 @@
         <v>6</v>
       </c>
       <c r="P160" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="Q160" t="s">
-        <v>536</v>
+        <v>588</v>
       </c>
       <c r="R160">
         <v>1</v>
@@ -11988,10 +12225,10 @@
         <v>179</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -12030,10 +12267,10 @@
         <v>6</v>
       </c>
       <c r="P161" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="Q161" t="s">
-        <v>537</v>
+        <v>589</v>
       </c>
       <c r="R161">
         <v>0</v>
@@ -12050,10 +12287,10 @@
         <v>180</v>
       </c>
       <c r="B162" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C162" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D162">
         <v>10</v>
@@ -12092,10 +12329,10 @@
         <v>6</v>
       </c>
       <c r="P162" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="Q162" t="s">
-        <v>538</v>
+        <v>590</v>
       </c>
       <c r="R162">
         <v>0</v>
@@ -12112,10 +12349,10 @@
         <v>181</v>
       </c>
       <c r="B163" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C163" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -12154,10 +12391,10 @@
         <v>5</v>
       </c>
       <c r="P163" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="Q163" t="s">
-        <v>539</v>
+        <v>591</v>
       </c>
       <c r="R163">
         <v>0</v>
@@ -12174,10 +12411,10 @@
         <v>182</v>
       </c>
       <c r="B164" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C164" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -12216,10 +12453,10 @@
         <v>5</v>
       </c>
       <c r="P164" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="Q164" t="s">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="R164">
         <v>2</v>
@@ -12236,10 +12473,10 @@
         <v>183</v>
       </c>
       <c r="B165" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C165" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -12278,10 +12515,10 @@
         <v>5</v>
       </c>
       <c r="P165" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="Q165" t="s">
-        <v>541</v>
+        <v>593</v>
       </c>
       <c r="R165">
         <v>2</v>
@@ -12298,10 +12535,10 @@
         <v>184</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C166" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -12340,10 +12577,10 @@
         <v>5</v>
       </c>
       <c r="P166" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="Q166" t="s">
-        <v>542</v>
+        <v>594</v>
       </c>
       <c r="R166">
         <v>2</v>
@@ -12360,10 +12597,10 @@
         <v>185</v>
       </c>
       <c r="B167" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C167" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D167">
         <v>8</v>
@@ -12402,10 +12639,10 @@
         <v>7</v>
       </c>
       <c r="P167" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="Q167" t="s">
-        <v>543</v>
+        <v>595</v>
       </c>
       <c r="R167">
         <v>0</v>
@@ -12422,10 +12659,10 @@
         <v>186</v>
       </c>
       <c r="B168" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C168" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D168">
         <v>9</v>
@@ -12464,10 +12701,10 @@
         <v>7</v>
       </c>
       <c r="P168" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="Q168" t="s">
-        <v>544</v>
+        <v>596</v>
       </c>
       <c r="R168">
         <v>0</v>
@@ -12484,10 +12721,10 @@
         <v>187</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C169" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -12526,10 +12763,10 @@
         <v>5</v>
       </c>
       <c r="P169" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="Q169" t="s">
-        <v>545</v>
+        <v>597</v>
       </c>
       <c r="R169">
         <v>0</v>
@@ -12546,10 +12783,10 @@
         <v>188</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C170" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D170">
         <v>9</v>
@@ -12588,10 +12825,10 @@
         <v>5</v>
       </c>
       <c r="P170" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="Q170" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
       <c r="R170">
         <v>2</v>
@@ -12608,10 +12845,10 @@
         <v>189</v>
       </c>
       <c r="B171" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C171" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D171">
         <v>9</v>
@@ -12650,10 +12887,10 @@
         <v>5</v>
       </c>
       <c r="P171" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="Q171" t="s">
-        <v>547</v>
+        <v>599</v>
       </c>
       <c r="R171">
         <v>0</v>
@@ -12670,10 +12907,10 @@
         <v>190</v>
       </c>
       <c r="B172" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C172" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -12712,10 +12949,10 @@
         <v>6</v>
       </c>
       <c r="P172" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="Q172" t="s">
-        <v>548</v>
+        <v>600</v>
       </c>
       <c r="R172">
         <v>1</v>
@@ -12732,10 +12969,10 @@
         <v>191</v>
       </c>
       <c r="B173" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C173" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -12774,10 +13011,10 @@
         <v>5</v>
       </c>
       <c r="P173" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="Q173" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="R173">
         <v>0</v>
@@ -12794,10 +13031,10 @@
         <v>192</v>
       </c>
       <c r="B174" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C174" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D174">
         <v>10</v>
@@ -12836,10 +13073,10 @@
         <v>5</v>
       </c>
       <c r="P174" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="Q174" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="R174">
         <v>0</v>
@@ -12856,10 +13093,10 @@
         <v>193</v>
       </c>
       <c r="B175" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C175" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -12898,10 +13135,10 @@
         <v>5</v>
       </c>
       <c r="P175" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="Q175" t="s">
-        <v>551</v>
+        <v>603</v>
       </c>
       <c r="R175">
         <v>2</v>
@@ -12918,10 +13155,10 @@
         <v>194</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C176" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -12960,10 +13197,10 @@
         <v>5</v>
       </c>
       <c r="P176" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="Q176" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="R176">
         <v>2</v>
@@ -12980,10 +13217,10 @@
         <v>195</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C177" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D177">
         <v>8</v>
@@ -13022,10 +13259,10 @@
         <v>5</v>
       </c>
       <c r="P177" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="Q177" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="R177">
         <v>2</v>
@@ -13042,10 +13279,10 @@
         <v>196</v>
       </c>
       <c r="B178" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C178" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -13084,10 +13321,10 @@
         <v>6</v>
       </c>
       <c r="P178" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="Q178" t="s">
-        <v>554</v>
+        <v>606</v>
       </c>
       <c r="R178">
         <v>1</v>
@@ -13104,10 +13341,10 @@
         <v>197</v>
       </c>
       <c r="B179" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C179" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -13146,10 +13383,10 @@
         <v>10</v>
       </c>
       <c r="P179" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="Q179" t="s">
-        <v>555</v>
+        <v>607</v>
       </c>
       <c r="R179">
         <v>0</v>
@@ -13161,7 +13398,1620 @@
         <v>0</v>
       </c>
     </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>198</v>
+      </c>
+      <c r="B180" t="s">
+        <v>224</v>
+      </c>
+      <c r="C180" t="s">
+        <v>225</v>
+      </c>
+      <c r="D180">
+        <v>8</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>7</v>
+      </c>
+      <c r="G180">
+        <v>2</v>
+      </c>
+      <c r="H180">
+        <v>8</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>8</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>4</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>5</v>
+      </c>
+      <c r="P180" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>608</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>1</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>199</v>
+      </c>
+      <c r="B181" t="s">
+        <v>224</v>
+      </c>
+      <c r="C181" t="s">
+        <v>225</v>
+      </c>
+      <c r="D181">
+        <v>10</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="F181">
+        <v>9</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+      <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="I181">
+        <v>3</v>
+      </c>
+      <c r="J181">
+        <v>10</v>
+      </c>
+      <c r="K181">
+        <v>3</v>
+      </c>
+      <c r="L181">
+        <v>4</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181">
+        <v>6</v>
+      </c>
+      <c r="P181" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>609</v>
+      </c>
+      <c r="R181">
+        <v>1</v>
+      </c>
+      <c r="S181">
+        <v>1</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" t="s">
+        <v>224</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>10</v>
+      </c>
+      <c r="F182">
+        <v>7</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>3</v>
+      </c>
+      <c r="I182">
+        <v>10</v>
+      </c>
+      <c r="J182">
+        <v>3</v>
+      </c>
+      <c r="K182">
+        <v>10</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>4</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182">
+        <v>5</v>
+      </c>
+      <c r="P182" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>610</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
+        <v>1</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183" t="s">
+        <v>225</v>
+      </c>
+      <c r="C183" t="s">
+        <v>224</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>8</v>
+      </c>
+      <c r="F183">
+        <v>6</v>
+      </c>
+      <c r="G183">
+        <v>2</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>8</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>8</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>4</v>
+      </c>
+      <c r="N183">
+        <v>5</v>
+      </c>
+      <c r="O183">
+        <v>9</v>
+      </c>
+      <c r="P183" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>611</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>1</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184" t="s">
+        <v>225</v>
+      </c>
+      <c r="C184" t="s">
+        <v>224</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>9</v>
+      </c>
+      <c r="F184">
+        <v>7</v>
+      </c>
+      <c r="G184">
+        <v>2</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
+        <v>9</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>9</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>4</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>5</v>
+      </c>
+      <c r="P184" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>612</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>1</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>203</v>
+      </c>
+      <c r="B185" t="s">
+        <v>224</v>
+      </c>
+      <c r="C185" t="s">
+        <v>225</v>
+      </c>
+      <c r="D185">
+        <v>8</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>5</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>8</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>8</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185">
+        <v>7</v>
+      </c>
+      <c r="P185" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>613</v>
+      </c>
+      <c r="R185">
+        <v>1</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>204</v>
+      </c>
+      <c r="B186" t="s">
+        <v>225</v>
+      </c>
+      <c r="C186" t="s">
+        <v>224</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>10</v>
+      </c>
+      <c r="F186">
+        <v>7</v>
+      </c>
+      <c r="G186">
+        <v>2</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>10</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>10</v>
+      </c>
+      <c r="L186">
+        <v>4</v>
+      </c>
+      <c r="M186">
+        <v>5</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>5</v>
+      </c>
+      <c r="P186" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>614</v>
+      </c>
+      <c r="R186">
+        <v>2</v>
+      </c>
+      <c r="S186">
+        <v>1</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>205</v>
+      </c>
+      <c r="B187" t="s">
+        <v>224</v>
+      </c>
+      <c r="C187" t="s">
+        <v>225</v>
+      </c>
+      <c r="D187">
+        <v>8</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
+        <v>7</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+      <c r="H187">
+        <v>8</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <v>8</v>
+      </c>
+      <c r="K187">
+        <v>2</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
+      <c r="M187">
+        <v>3</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187">
+        <v>6</v>
+      </c>
+      <c r="P187" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>615</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>1</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188" t="s">
+        <v>225</v>
+      </c>
+      <c r="C188" t="s">
+        <v>224</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>10</v>
+      </c>
+      <c r="F188">
+        <v>9</v>
+      </c>
+      <c r="G188">
+        <v>3</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>10</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>10</v>
+      </c>
+      <c r="L188">
+        <v>4</v>
+      </c>
+      <c r="M188">
+        <v>4</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188">
+        <v>6</v>
+      </c>
+      <c r="P188" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>616</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>1</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>207</v>
+      </c>
+      <c r="B189" t="s">
+        <v>224</v>
+      </c>
+      <c r="C189" t="s">
+        <v>225</v>
+      </c>
+      <c r="D189">
+        <v>8</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>8</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+      <c r="H189">
+        <v>8</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+      <c r="J189">
+        <v>8</v>
+      </c>
+      <c r="K189">
+        <v>3</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189">
+        <v>6</v>
+      </c>
+      <c r="P189" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>617</v>
+      </c>
+      <c r="R189">
+        <v>1</v>
+      </c>
+      <c r="S189">
+        <v>1</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>208</v>
+      </c>
+      <c r="B190" t="s">
+        <v>225</v>
+      </c>
+      <c r="C190" t="s">
+        <v>224</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>9</v>
+      </c>
+      <c r="F190">
+        <v>8</v>
+      </c>
+      <c r="G190">
+        <v>2</v>
+      </c>
+      <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
+        <v>9</v>
+      </c>
+      <c r="J190">
+        <v>3</v>
+      </c>
+      <c r="K190">
+        <v>9</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190">
+        <v>7</v>
+      </c>
+      <c r="P190" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>618</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>1</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>209</v>
+      </c>
+      <c r="B191" t="s">
+        <v>225</v>
+      </c>
+      <c r="C191" t="s">
+        <v>224</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+      <c r="E191">
+        <v>8</v>
+      </c>
+      <c r="F191">
+        <v>7</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>8</v>
+      </c>
+      <c r="J191">
+        <v>3</v>
+      </c>
+      <c r="K191">
+        <v>8</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191">
+        <v>6</v>
+      </c>
+      <c r="P191" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>619</v>
+      </c>
+      <c r="R191">
+        <v>1</v>
+      </c>
+      <c r="S191">
+        <v>1</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>210</v>
+      </c>
+      <c r="B192" t="s">
+        <v>224</v>
+      </c>
+      <c r="C192" t="s">
+        <v>225</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192">
+        <v>7</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>8</v>
+      </c>
+      <c r="I192">
+        <v>3</v>
+      </c>
+      <c r="J192">
+        <v>8</v>
+      </c>
+      <c r="K192">
+        <v>3</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>3</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>5</v>
+      </c>
+      <c r="P192" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>620</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>1</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>211</v>
+      </c>
+      <c r="B193" t="s">
+        <v>225</v>
+      </c>
+      <c r="C193" t="s">
+        <v>224</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>9</v>
+      </c>
+      <c r="F193">
+        <v>6</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>9</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>9</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
+      </c>
+      <c r="M193">
+        <v>4</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>5</v>
+      </c>
+      <c r="P193" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>621</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>1</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>212</v>
+      </c>
+      <c r="B194" t="s">
+        <v>224</v>
+      </c>
+      <c r="C194" t="s">
+        <v>225</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>6</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>10</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>10</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>5</v>
+      </c>
+      <c r="M194">
+        <v>4</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194">
+        <v>6</v>
+      </c>
+      <c r="P194" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>622</v>
+      </c>
+      <c r="R194">
+        <v>1</v>
+      </c>
+      <c r="S194">
+        <v>1</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>213</v>
+      </c>
+      <c r="B195" t="s">
+        <v>225</v>
+      </c>
+      <c r="C195" t="s">
+        <v>224</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>8</v>
+      </c>
+      <c r="F195">
+        <v>5</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>8</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>8</v>
+      </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
+      <c r="M195">
+        <v>3</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195">
+        <v>6</v>
+      </c>
+      <c r="P195" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>623</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>1</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>214</v>
+      </c>
+      <c r="B196" t="s">
+        <v>225</v>
+      </c>
+      <c r="C196" t="s">
+        <v>224</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>9</v>
+      </c>
+      <c r="F196">
+        <v>5</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>9</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>9</v>
+      </c>
+      <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>4</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196">
+        <v>6</v>
+      </c>
+      <c r="P196" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>624</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>1</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>215</v>
+      </c>
+      <c r="B197" t="s">
+        <v>224</v>
+      </c>
+      <c r="C197" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>6</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>8</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>8</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>3</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>5</v>
+      </c>
+      <c r="P197" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>625</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>1</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>216</v>
+      </c>
+      <c r="B198" t="s">
+        <v>224</v>
+      </c>
+      <c r="C198" t="s">
+        <v>225</v>
+      </c>
+      <c r="D198">
+        <v>8</v>
+      </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+      <c r="F198">
+        <v>7</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>8</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198">
+        <v>8</v>
+      </c>
+      <c r="K198">
+        <v>3</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>3</v>
+      </c>
+      <c r="N198">
+        <v>1</v>
+      </c>
+      <c r="O198">
+        <v>5</v>
+      </c>
+      <c r="P198" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>626</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>1</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>217</v>
+      </c>
+      <c r="B199" t="s">
+        <v>225</v>
+      </c>
+      <c r="C199" t="s">
+        <v>224</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>10</v>
+      </c>
+      <c r="F199">
+        <v>7</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>10</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+      <c r="K199">
+        <v>10</v>
+      </c>
+      <c r="L199">
+        <v>4</v>
+      </c>
+      <c r="M199">
+        <v>4</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199">
+        <v>5</v>
+      </c>
+      <c r="P199" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>627</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>1</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>218</v>
+      </c>
+      <c r="B200" t="s">
+        <v>225</v>
+      </c>
+      <c r="C200" t="s">
+        <v>224</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>9</v>
+      </c>
+      <c r="F200">
+        <v>6</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>9</v>
+      </c>
+      <c r="J200">
+        <v>2</v>
+      </c>
+      <c r="K200">
+        <v>9</v>
+      </c>
+      <c r="L200">
+        <v>4</v>
+      </c>
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200">
+        <v>6</v>
+      </c>
+      <c r="P200" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>628</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>1</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>219</v>
+      </c>
+      <c r="B201" t="s">
+        <v>225</v>
+      </c>
+      <c r="C201" t="s">
+        <v>224</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>9</v>
+      </c>
+      <c r="F201">
+        <v>6</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>9</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
+      </c>
+      <c r="K201">
+        <v>9</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>4</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201">
+        <v>6</v>
+      </c>
+      <c r="P201" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>629</v>
+      </c>
+      <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
+        <v>1</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202" t="s">
+        <v>224</v>
+      </c>
+      <c r="C202" t="s">
+        <v>225</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>7</v>
+      </c>
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>9</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>9</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>4</v>
+      </c>
+      <c r="M202">
+        <v>4</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202">
+        <v>5</v>
+      </c>
+      <c r="P202" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>630</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>1</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>221</v>
+      </c>
+      <c r="B203" t="s">
+        <v>225</v>
+      </c>
+      <c r="C203" t="s">
+        <v>224</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>10</v>
+      </c>
+      <c r="F203">
+        <v>6</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>10</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+      <c r="K203">
+        <v>10</v>
+      </c>
+      <c r="L203">
+        <v>4</v>
+      </c>
+      <c r="M203">
+        <v>4</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203">
+        <v>6</v>
+      </c>
+      <c r="P203" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>631</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>1</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>222</v>
+      </c>
+      <c r="B204" t="s">
+        <v>224</v>
+      </c>
+      <c r="C204" t="s">
+        <v>225</v>
+      </c>
+      <c r="D204">
+        <v>9</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="F204">
+        <v>10</v>
+      </c>
+      <c r="G204">
+        <v>4</v>
+      </c>
+      <c r="H204">
+        <v>9</v>
+      </c>
+      <c r="I204">
+        <v>3</v>
+      </c>
+      <c r="J204">
+        <v>9</v>
+      </c>
+      <c r="K204">
+        <v>3</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>3</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204">
+        <v>5</v>
+      </c>
+      <c r="P204" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>632</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>1</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205" t="s">
+        <v>225</v>
+      </c>
+      <c r="C205" t="s">
+        <v>224</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205">
+        <v>9</v>
+      </c>
+      <c r="F205">
+        <v>6</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>9</v>
+      </c>
+      <c r="J205">
+        <v>2</v>
+      </c>
+      <c r="K205">
+        <v>9</v>
+      </c>
+      <c r="L205">
+        <v>4</v>
+      </c>
+      <c r="M205">
+        <v>3</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205">
+        <v>6</v>
+      </c>
+      <c r="P205" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>633</v>
+      </c>
+      <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="S205">
+        <v>1</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:T205" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RBAI_RBAI_results.xlsx
+++ b/RBAI_RBAI_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\MSc Thesis\MSc Code\github\MSc_Thesis_Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E701E-811C-4D48-B50E-9F1472C136ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181D06AE-28D8-4E6A-A8B6-61CBCF27399D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2295,7 +2295,7 @@
   <dimension ref="A1:T205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
